--- a/Appendix/Sprint Backlogs/SprintBacklog2nd.xlsx
+++ b/Appendix/Sprint Backlogs/SprintBacklog2nd.xlsx
@@ -983,7 +983,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1189,6 +1189,9 @@
       <c r="H8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1291,6 +1294,9 @@
       <c r="H13">
         <v>4</v>
       </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1314,6 +1320,9 @@
       <c r="H14">
         <v>5</v>
       </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1337,6 +1346,9 @@
       <c r="H15">
         <v>2</v>
       </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1360,6 +1372,9 @@
       <c r="H16">
         <v>4</v>
       </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1500,6 +1515,9 @@
       <c r="H24">
         <v>12</v>
       </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1523,6 +1541,9 @@
       <c r="H25">
         <v>8</v>
       </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1625,6 +1646,9 @@
       <c r="H30">
         <v>6</v>
       </c>
+      <c r="I30">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1648,6 +1672,9 @@
       <c r="H31">
         <v>4</v>
       </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1672,7 +1699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1694,8 +1721,11 @@
       <c r="H33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1717,8 +1747,11 @@
       <c r="H34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1738,7 +1771,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1763,8 +1796,11 @@
       <c r="H36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1786,8 +1822,11 @@
       <c r="H37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1809,8 +1848,11 @@
       <c r="H38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1832,8 +1874,11 @@
       <c r="H39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1855,8 +1900,11 @@
       <c r="H40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1878,8 +1926,11 @@
       <c r="H41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1904,8 +1955,11 @@
       <c r="H42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1927,8 +1981,11 @@
       <c r="H43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1953,8 +2010,11 @@
       <c r="H44">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1977,6 +2037,10 @@
       <c r="H46">
         <f>SUM(H5:H44)</f>
         <v>79</v>
+      </c>
+      <c r="I46">
+        <f>SUM(I5:I44)</f>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Appendix/Sprint Backlogs/SprintBacklog2nd.xlsx
+++ b/Appendix/Sprint Backlogs/SprintBacklog2nd.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Mark/Kari</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -982,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1191,6 +1194,15 @@
       </c>
       <c r="I8">
         <v>4</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -1297,6 +1309,9 @@
       <c r="I13">
         <v>2</v>
       </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1323,6 +1338,9 @@
       <c r="I14">
         <v>5</v>
       </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1349,6 +1367,9 @@
       <c r="I15">
         <v>2</v>
       </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1375,6 +1396,9 @@
       <c r="I16">
         <v>4</v>
       </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1518,6 +1542,9 @@
       <c r="I24">
         <v>10</v>
       </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1526,8 +1553,11 @@
       <c r="B25">
         <v>8</v>
       </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
       <c r="D25" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -1543,6 +1573,9 @@
       </c>
       <c r="I25">
         <v>8</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1649,6 +1682,9 @@
       <c r="I30">
         <v>6</v>
       </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1675,6 +1711,9 @@
       <c r="I31">
         <v>4</v>
       </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -1699,7 +1738,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1724,8 +1763,11 @@
       <c r="I33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1750,8 +1792,11 @@
       <c r="I34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1771,7 +1816,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1799,8 +1844,11 @@
       <c r="I36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1825,8 +1873,11 @@
       <c r="I37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1851,8 +1902,11 @@
       <c r="I38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1877,8 +1931,11 @@
       <c r="I39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1903,8 +1960,11 @@
       <c r="I40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1929,8 +1989,11 @@
       <c r="I41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1958,8 +2021,11 @@
       <c r="I42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1984,8 +2050,11 @@
       <c r="I43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2013,8 +2082,11 @@
       <c r="I44">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2041,6 +2113,10 @@
       <c r="I46">
         <f>SUM(I5:I44)</f>
         <v>78</v>
+      </c>
+      <c r="J46">
+        <f>SUM(J5:J44)</f>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Appendix/Sprint Backlogs/SprintBacklog2nd.xlsx
+++ b/Appendix/Sprint Backlogs/SprintBacklog2nd.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1292,7 +1292,7 @@
         <v>51</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -1311,6 +1311,12 @@
       </c>
       <c r="J13">
         <v>2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1320,8 +1326,11 @@
       <c r="B14">
         <v>5</v>
       </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1340,6 +1349,12 @@
       </c>
       <c r="J14">
         <v>5</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -1349,8 +1364,11 @@
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
       <c r="D15" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1369,6 +1387,12 @@
       </c>
       <c r="J15">
         <v>2</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1378,8 +1402,11 @@
       <c r="B16">
         <v>4</v>
       </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -1398,6 +1425,12 @@
       </c>
       <c r="J16">
         <v>4</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1525,7 +1558,7 @@
         <v>54</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24">
         <v>12</v>
@@ -1544,6 +1577,12 @@
       </c>
       <c r="J24">
         <v>6</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1557,7 +1596,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25">
         <v>8</v>
@@ -1576,6 +1615,12 @@
       </c>
       <c r="J25">
         <v>4</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1685,6 +1730,9 @@
       <c r="J30">
         <v>6</v>
       </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1737,8 +1785,17 @@
       <c r="G32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1766,8 +1823,11 @@
       <c r="J33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1795,8 +1855,11 @@
       <c r="J34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1816,7 +1879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1847,8 +1910,11 @@
       <c r="J36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1876,8 +1942,11 @@
       <c r="J37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1905,8 +1974,11 @@
       <c r="J38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1934,8 +2006,11 @@
       <c r="J39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -1963,14 +2038,20 @@
       <c r="J40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
       <c r="D41" s="7" t="s">
         <v>46</v>
       </c>
@@ -1992,8 +2073,11 @@
       <c r="J41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2024,14 +2108,20 @@
       <c r="J42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
       <c r="D43" s="7" t="s">
         <v>46</v>
       </c>
@@ -2053,8 +2143,11 @@
       <c r="J43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2178,11 @@
       <c r="J44">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2095,28 +2191,32 @@
         <v>121</v>
       </c>
       <c r="E46">
-        <f>SUM(E5:E44)</f>
+        <f t="shared" ref="E46:J46" si="0">SUM(E5:E44)</f>
         <v>101</v>
       </c>
       <c r="F46">
-        <f>SUM(F5:F44)</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="G46">
-        <f>SUM(G5:G44)</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="H46">
-        <f>SUM(H5:H44)</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="I46">
-        <f>SUM(I5:I44)</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="J46">
-        <f>SUM(J5:J44)</f>
+        <f t="shared" si="0"/>
         <v>66</v>
+      </c>
+      <c r="K46">
+        <f>SUM(K5:K44)</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Appendix/Sprint Backlogs/SprintBacklog2nd.xlsx
+++ b/Appendix/Sprint Backlogs/SprintBacklog2nd.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="57">
   <si>
     <t>Sprint Backlog</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Kari, Robert,Mark</t>
   </si>
 </sst>
 </file>
@@ -985,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1733,6 +1736,9 @@
       <c r="K30">
         <v>4</v>
       </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -1741,8 +1747,11 @@
       <c r="B31">
         <v>4</v>
       </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
       <c r="D31" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E31">
         <v>4</v>
@@ -1761,6 +1770,12 @@
       </c>
       <c r="J31">
         <v>4</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -1774,7 +1789,7 @@
         <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" t="s">
         <v>50</v>
@@ -1794,16 +1809,25 @@
       <c r="J32" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K32" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
       <c r="D33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -1826,16 +1850,22 @@
       <c r="K33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
       <c r="D34" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E34">
         <v>3</v>
@@ -1858,16 +1888,22 @@
       <c r="K34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
       </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
       <c r="D35" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>50</v>
@@ -1878,8 +1914,23 @@
       <c r="G35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1887,10 +1938,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E36">
         <v>4</v>
@@ -1913,14 +1964,20 @@
       <c r="K36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
       <c r="D37" s="7" t="s">
         <v>46</v>
       </c>
@@ -1945,16 +2002,22 @@
       <c r="K37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
       <c r="D38" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1977,14 +2040,20 @@
       <c r="K38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
+      <c r="C39" t="s">
+        <v>50</v>
+      </c>
       <c r="D39" s="7" t="s">
         <v>46</v>
       </c>
@@ -2009,14 +2078,20 @@
       <c r="K39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
       <c r="D40" s="7" t="s">
         <v>46</v>
       </c>
@@ -2041,8 +2116,11 @@
       <c r="K40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2053,7 +2131,7 @@
         <v>16</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E41">
         <v>5</v>
@@ -2076,8 +2154,11 @@
       <c r="K41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2111,8 +2192,11 @@
       <c r="K42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2146,8 +2230,11 @@
       <c r="K43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2181,8 +2268,11 @@
       <c r="K44">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2216,7 +2306,11 @@
       </c>
       <c r="K46">
         <f>SUM(K5:K44)</f>
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="L46">
+        <f>SUM(L5:L44)</f>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
